--- a/logs/boat_logs/UmboSkiffMaintenanceLog.xlsx
+++ b/logs/boat_logs/UmboSkiffMaintenanceLog.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="87">
   <si>
     <t>Boat UF#</t>
   </si>
@@ -267,6 +267,24 @@
   </si>
   <si>
     <t>46210 3D31 TDE TMW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">replaced jack plate wiring harness </t>
+  </si>
+  <si>
+    <t>new fire extinguisher mount</t>
+  </si>
+  <si>
+    <t>replaced</t>
+  </si>
+  <si>
+    <t>repaired starboard gas tank connection</t>
+  </si>
+  <si>
+    <t>straighened bent prop blades</t>
+  </si>
+  <si>
+    <t xml:space="preserve">patched hull </t>
   </si>
 </sst>
 </file>
@@ -585,10 +603,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z82"/>
+  <dimension ref="A1:Z98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B4" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="G101" sqref="G101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1629,7 +1647,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="81" spans="7:26" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:26" x14ac:dyDescent="0.25">
       <c r="G81" s="1">
         <v>43691</v>
       </c>
@@ -1637,7 +1655,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="82" spans="7:26" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:26" x14ac:dyDescent="0.25">
       <c r="G82" s="1">
         <v>43692</v>
       </c>
@@ -1649,6 +1667,150 @@
       </c>
       <c r="Z82" t="s">
         <v>75</v>
+      </c>
+    </row>
+    <row r="83" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A83" s="1">
+        <v>43706</v>
+      </c>
+      <c r="B83">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="84" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="G84" s="1">
+        <v>43714</v>
+      </c>
+      <c r="Z84" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="85" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A85" s="1">
+        <v>43717</v>
+      </c>
+      <c r="B85">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="86" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A86" s="1">
+        <v>43725</v>
+      </c>
+      <c r="B86">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="87" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A87" s="1">
+        <v>43726</v>
+      </c>
+      <c r="B87">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="88" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="G88" s="1">
+        <v>43735</v>
+      </c>
+      <c r="Z88" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="89" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A89" s="1">
+        <v>43739</v>
+      </c>
+      <c r="B89">
+        <v>140</v>
+      </c>
+      <c r="G89" s="1"/>
+    </row>
+    <row r="90" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="G90" s="1">
+        <v>43749</v>
+      </c>
+      <c r="H90" t="s">
+        <v>83</v>
+      </c>
+      <c r="K90" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z90" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="91" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A91" s="1">
+        <v>43753</v>
+      </c>
+      <c r="B91">
+        <v>140</v>
+      </c>
+      <c r="G91" s="1"/>
+    </row>
+    <row r="92" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A92" s="1">
+        <v>43762</v>
+      </c>
+      <c r="B92">
+        <v>120</v>
+      </c>
+      <c r="G92" s="1"/>
+    </row>
+    <row r="93" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="G93" s="1">
+        <v>43763</v>
+      </c>
+      <c r="Z93" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="94" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A94" s="1">
+        <v>43766</v>
+      </c>
+      <c r="B94">
+        <v>140</v>
+      </c>
+      <c r="G94" s="1">
+        <v>43766</v>
+      </c>
+      <c r="Z94" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="95" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A95" s="1">
+        <v>43767</v>
+      </c>
+      <c r="B95">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="96" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A96" s="1">
+        <v>43770</v>
+      </c>
+      <c r="B96">
+        <v>120</v>
+      </c>
+      <c r="G96" s="1"/>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A97" s="1">
+        <v>43773</v>
+      </c>
+      <c r="B97">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A98" s="1">
+        <v>43787</v>
+      </c>
+      <c r="B98">
+        <v>140</v>
       </c>
     </row>
   </sheetData>

--- a/logs/boat_logs/UmboSkiffMaintenanceLog.xlsx
+++ b/logs/boat_logs/UmboSkiffMaintenanceLog.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="91">
   <si>
     <t>Boat UF#</t>
   </si>
@@ -285,6 +285,18 @@
   </si>
   <si>
     <t xml:space="preserve">patched hull </t>
+  </si>
+  <si>
+    <t>oil change kit</t>
+  </si>
+  <si>
+    <t>LUB-MRNMD-KT-21 (yamaha, 20W40 better for florida/hot areas)</t>
+  </si>
+  <si>
+    <t>oil change/replaced prop</t>
+  </si>
+  <si>
+    <t>deep clean/powespray</t>
   </si>
 </sst>
 </file>
@@ -603,10 +615,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z98"/>
+  <dimension ref="A1:Z102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="G101" sqref="G101"/>
+    <sheetView tabSelected="1" topLeftCell="A76" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="X105" sqref="X105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -675,6 +687,12 @@
       <c r="F5" t="s">
         <v>58</v>
       </c>
+      <c r="J5" t="s">
+        <v>87</v>
+      </c>
+      <c r="K5" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -1797,7 +1815,7 @@
       </c>
       <c r="G96" s="1"/>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>43773</v>
       </c>
@@ -1805,11 +1823,51 @@
         <v>140</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>43787</v>
       </c>
       <c r="B98">
+        <v>140</v>
+      </c>
+      <c r="C98">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="99" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A99" s="1">
+        <v>43790</v>
+      </c>
+      <c r="B99">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="100" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A100" s="1"/>
+      <c r="G100" s="1">
+        <v>43794</v>
+      </c>
+      <c r="O100" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z100" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="101" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A101" s="1"/>
+      <c r="G101" s="1">
+        <v>43812</v>
+      </c>
+      <c r="Z101" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="102" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A102" s="1">
+        <v>43804</v>
+      </c>
+      <c r="B102">
         <v>140</v>
       </c>
     </row>

--- a/logs/boat_logs/UmboSkiffMaintenanceLog.xlsx
+++ b/logs/boat_logs/UmboSkiffMaintenanceLog.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="92">
   <si>
     <t>Boat UF#</t>
   </si>
@@ -297,6 +297,9 @@
   </si>
   <si>
     <t>deep clean/powespray</t>
+  </si>
+  <si>
+    <t>removed anchor holder/trailer lights ground issue</t>
   </si>
 </sst>
 </file>
@@ -615,10 +618,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z102"/>
+  <dimension ref="A1:Z104"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A76" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="X105" sqref="X105"/>
+      <selection activeCell="F107" sqref="F107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1871,6 +1874,22 @@
         <v>140</v>
       </c>
     </row>
+    <row r="103" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="G103" s="1">
+        <v>43832</v>
+      </c>
+      <c r="Z103" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="104" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A104" s="1">
+        <v>43468</v>
+      </c>
+      <c r="B104">
+        <v>140</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/logs/boat_logs/UmboSkiffMaintenanceLog.xlsx
+++ b/logs/boat_logs/UmboSkiffMaintenanceLog.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
   <si>
     <t>Boat UF#</t>
   </si>
@@ -38,60 +38,12 @@
     <t>TrailerMiles</t>
   </si>
   <si>
-    <t>Fuel (tank)</t>
-  </si>
-  <si>
     <t>USE</t>
   </si>
   <si>
     <t>MotorHours</t>
   </si>
   <si>
-    <t>added (strbd)</t>
-  </si>
-  <si>
-    <t>switched to port tank</t>
-  </si>
-  <si>
-    <t>Other</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bearings </t>
-  </si>
-  <si>
-    <t>Grease</t>
-  </si>
-  <si>
-    <t>Clean</t>
-  </si>
-  <si>
-    <t>Battery</t>
-  </si>
-  <si>
-    <t>Gas Age (strbd)</t>
-  </si>
-  <si>
-    <t>Gas Age (port)</t>
-  </si>
-  <si>
-    <t>Stabil</t>
-  </si>
-  <si>
-    <t>Lower Unit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oil Change </t>
-  </si>
-  <si>
-    <t>X</t>
-  </si>
-  <si>
-    <t>Equipment</t>
-  </si>
-  <si>
-    <t>&gt;2 months</t>
-  </si>
-  <si>
     <t>Reg#</t>
   </si>
   <si>
@@ -101,57 +53,18 @@
     <t>Plate#</t>
   </si>
   <si>
-    <t>RunMotor</t>
-  </si>
-  <si>
     <t>MAINTENANCE/CHECKS</t>
   </si>
   <si>
-    <t>2 months</t>
-  </si>
-  <si>
     <t>Repair Location</t>
   </si>
   <si>
     <t>Millers in Ocala</t>
   </si>
   <si>
-    <t>Tire pressure</t>
-  </si>
-  <si>
-    <t>x</t>
-  </si>
-  <si>
-    <t xml:space="preserve">added </t>
-  </si>
-  <si>
-    <t>Trailer Lights</t>
-  </si>
-  <si>
-    <t>NavLights</t>
-  </si>
-  <si>
-    <t>Tread</t>
-  </si>
-  <si>
-    <t>&lt;1 month</t>
-  </si>
-  <si>
-    <t>Hydraulics/steering</t>
-  </si>
-  <si>
-    <t>TrailerGen</t>
-  </si>
-  <si>
-    <t>Winch</t>
-  </si>
-  <si>
     <t>YI935</t>
   </si>
   <si>
-    <t>added</t>
-  </si>
-  <si>
     <t>Motor</t>
   </si>
   <si>
@@ -170,27 +83,9 @@
     <t>Boat Length</t>
   </si>
   <si>
-    <t>switched to strbd tank</t>
-  </si>
-  <si>
     <t>new prop</t>
   </si>
   <si>
-    <t>added (prt)</t>
-  </si>
-  <si>
-    <t>MPG</t>
-  </si>
-  <si>
-    <t>19 miles 1/4 tank</t>
-  </si>
-  <si>
-    <t>25 miles 1/2 tank</t>
-  </si>
-  <si>
-    <t xml:space="preserve">added (old airboat fuel to strbrd) </t>
-  </si>
-  <si>
     <t>Tire</t>
   </si>
   <si>
@@ -209,12 +104,6 @@
     <t>Tide dropped out, boat stuck, no repairs needed</t>
   </si>
   <si>
-    <t>load tested</t>
-  </si>
-  <si>
-    <t>added lots to port bearing</t>
-  </si>
-  <si>
     <t>replaced broken starboard trailer spring</t>
   </si>
   <si>
@@ -227,12 +116,6 @@
     <t>Prop replaced:  Quicksilver Nemesis 4 blade 13 diameter, 17 pitch</t>
   </si>
   <si>
-    <t>greased</t>
-  </si>
-  <si>
-    <t>Port trailer fender repaired/new bimini cover</t>
-  </si>
-  <si>
     <t>re-patch hole in hull, new console shelf</t>
   </si>
   <si>
@@ -269,18 +152,9 @@
     <t>46210 3D31 TDE TMW</t>
   </si>
   <si>
-    <t xml:space="preserve">replaced jack plate wiring harness </t>
-  </si>
-  <si>
     <t>new fire extinguisher mount</t>
   </si>
   <si>
-    <t>replaced</t>
-  </si>
-  <si>
-    <t>repaired starboard gas tank connection</t>
-  </si>
-  <si>
     <t>straighened bent prop blades</t>
   </si>
   <si>
@@ -299,7 +173,37 @@
     <t>deep clean/powespray</t>
   </si>
   <si>
-    <t>removed anchor holder/trailer lights ground issue</t>
+    <t>greased bearings</t>
+  </si>
+  <si>
+    <t>lower unit oil check</t>
+  </si>
+  <si>
+    <t>greased bearings, batteries load tested (fine)</t>
+  </si>
+  <si>
+    <t>Port trailer fender repaired, new bimini cover, air added to tires</t>
+  </si>
+  <si>
+    <t>greased steering</t>
+  </si>
+  <si>
+    <t>air added to tires, oil change</t>
+  </si>
+  <si>
+    <t>oil change</t>
+  </si>
+  <si>
+    <t>Maintenance</t>
+  </si>
+  <si>
+    <t>repaired starboard gas tank connection, air added to tires, new trailer lights</t>
+  </si>
+  <si>
+    <t>removed anchor holder/fixed trailer lights ground issue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">replaced jack plate solenoids/wiring harness </t>
   </si>
 </sst>
 </file>
@@ -618,10 +522,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z104"/>
+  <dimension ref="A1:L107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="F107" sqref="F107"/>
+    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="I110" sqref="I110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -633,24 +537,24 @@
     <col min="8" max="25" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="D1" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="G1" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="H1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -658,86 +562,86 @@
         <v>5232</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="B4">
         <v>22</v>
       </c>
       <c r="E4" t="s">
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="F4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E5" t="s">
-        <v>57</v>
+        <v>22</v>
       </c>
       <c r="F5" t="s">
-        <v>58</v>
+        <v>23</v>
       </c>
       <c r="J5" t="s">
-        <v>87</v>
+        <v>45</v>
       </c>
       <c r="K5" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="J6" t="s">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="K6" t="s">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="L6" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>44</v>
+        <v>15</v>
       </c>
       <c r="J7" t="s">
-        <v>79</v>
+        <v>40</v>
       </c>
       <c r="K7" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="8" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>2</v>
       </c>
@@ -745,76 +649,13 @@
         <v>3</v>
       </c>
       <c r="C10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D10" t="s">
-        <v>4</v>
-      </c>
-      <c r="E10" t="s">
-        <v>51</v>
-      </c>
-      <c r="G10" t="s">
-        <v>2</v>
-      </c>
-      <c r="H10" t="s">
-        <v>33</v>
-      </c>
-      <c r="I10" t="s">
-        <v>10</v>
-      </c>
-      <c r="J10" t="s">
-        <v>11</v>
-      </c>
-      <c r="K10" t="s">
-        <v>30</v>
-      </c>
-      <c r="L10" t="s">
-        <v>35</v>
-      </c>
-      <c r="M10" t="s">
-        <v>39</v>
-      </c>
-      <c r="N10" t="s">
-        <v>38</v>
-      </c>
-      <c r="O10" t="s">
-        <v>18</v>
-      </c>
-      <c r="P10" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>37</v>
-      </c>
-      <c r="R10" t="s">
-        <v>13</v>
-      </c>
-      <c r="S10" t="s">
-        <v>25</v>
-      </c>
-      <c r="T10" t="s">
-        <v>12</v>
-      </c>
-      <c r="U10" t="s">
-        <v>14</v>
-      </c>
-      <c r="V10" t="s">
-        <v>15</v>
-      </c>
-      <c r="W10" t="s">
-        <v>16</v>
-      </c>
-      <c r="X10" t="s">
-        <v>20</v>
-      </c>
-      <c r="Y10" t="s">
-        <v>34</v>
-      </c>
-      <c r="Z10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>43046</v>
       </c>
@@ -822,263 +663,94 @@
         <v>140</v>
       </c>
       <c r="D11" t="s">
-        <v>32</v>
-      </c>
-      <c r="G11" s="1">
-        <v>43411</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="K11" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="L11" s="1"/>
-      <c r="M11" s="1"/>
-      <c r="N11" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="Y11" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>43047</v>
       </c>
       <c r="B12">
         <v>140</v>
       </c>
-      <c r="G12" s="1">
-        <v>43412</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="K12" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="L12" s="1"/>
-      <c r="M12" s="1"/>
-      <c r="N12" s="1"/>
-      <c r="Y12" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>43089</v>
       </c>
       <c r="B13">
         <v>140</v>
       </c>
-      <c r="D13" t="s">
-        <v>7</v>
-      </c>
-      <c r="G13" s="1">
-        <v>43454</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="K13" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="L13" s="1"/>
-      <c r="M13" s="1"/>
-      <c r="N13" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="O13" s="1"/>
-      <c r="R13" s="1"/>
-      <c r="S13" s="1"/>
-      <c r="T13" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="U13" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="V13" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="W13" s="1"/>
-      <c r="X13" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="Y13" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="Z13" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>43091</v>
       </c>
       <c r="B14">
         <v>140</v>
       </c>
-      <c r="G14" s="1">
-        <v>43456</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="K14" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="L14" s="1"/>
-      <c r="M14" s="1"/>
-      <c r="N14" s="1"/>
-      <c r="P14" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q14" s="1"/>
-      <c r="T14" t="s">
-        <v>31</v>
-      </c>
-      <c r="X14" t="s">
-        <v>19</v>
-      </c>
-      <c r="Y14" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="D14" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>43151</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
       <c r="C15">
         <v>70</v>
       </c>
       <c r="D15" t="s">
-        <v>50</v>
-      </c>
-      <c r="G15" s="1">
-        <v>43151</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="K15" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="L15" t="s">
-        <v>31</v>
-      </c>
-      <c r="M15" t="s">
-        <v>31</v>
-      </c>
-      <c r="N15" t="s">
-        <v>31</v>
-      </c>
-      <c r="O15" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q15" t="s">
-        <v>31</v>
-      </c>
-      <c r="S15" t="s">
-        <v>31</v>
-      </c>
-      <c r="V15" t="s">
-        <v>36</v>
-      </c>
-      <c r="W15" t="s">
-        <v>31</v>
-      </c>
-      <c r="Z15" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="G16" s="1">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
         <v>43157</v>
       </c>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-      <c r="Z16" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="D16" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>43161</v>
       </c>
       <c r="B17">
         <v>140</v>
       </c>
-      <c r="E17" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>43175</v>
       </c>
       <c r="B18">
         <v>120</v>
       </c>
-      <c r="D18" t="s">
-        <v>7</v>
-      </c>
-      <c r="E18" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="G19" s="1">
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
         <v>43186</v>
       </c>
-      <c r="W19" t="s">
-        <v>31</v>
-      </c>
-      <c r="Z19" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>43207</v>
       </c>
       <c r="B20">
         <v>120</v>
       </c>
-      <c r="D20" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>43214</v>
       </c>
@@ -1086,37 +758,34 @@
         <v>120</v>
       </c>
     </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>43215</v>
       </c>
-    </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>43220</v>
       </c>
       <c r="B23">
         <v>120</v>
       </c>
-      <c r="D23" t="s">
-        <v>54</v>
-      </c>
-      <c r="W23" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>43252</v>
       </c>
       <c r="B24">
         <v>140</v>
       </c>
-      <c r="Z24" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="D24" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>43256</v>
       </c>
@@ -1124,7 +793,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>43259</v>
       </c>
@@ -1132,7 +801,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>43263</v>
       </c>
@@ -1140,7 +809,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>43273</v>
       </c>
@@ -1148,7 +817,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>43278</v>
       </c>
@@ -1156,7 +825,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>43283</v>
       </c>
@@ -1164,7 +833,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>43284</v>
       </c>
@@ -1172,27 +841,29 @@
         <v>140</v>
       </c>
     </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A32" s="1"/>
-      <c r="G32" s="1">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
         <v>43292</v>
       </c>
-      <c r="Z32" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="33" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B32">
+        <v>0</v>
+      </c>
+      <c r="D32" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>43293</v>
       </c>
       <c r="B33">
         <v>140</v>
       </c>
-      <c r="Z33" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="34" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="D33" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>43305</v>
       </c>
@@ -1200,51 +871,18 @@
         <v>140</v>
       </c>
     </row>
-    <row r="35" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="G35" s="1">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
         <v>43332</v>
       </c>
-      <c r="H35" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="I35" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="J35" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="K35" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="L35" t="s">
-        <v>31</v>
-      </c>
-      <c r="M35" t="s">
-        <v>31</v>
-      </c>
-      <c r="N35" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q35" t="s">
-        <v>31</v>
-      </c>
-      <c r="R35" t="s">
-        <v>61</v>
-      </c>
-      <c r="S35" t="s">
-        <v>31</v>
-      </c>
-      <c r="V35" t="s">
-        <v>36</v>
-      </c>
-      <c r="X35" t="s">
-        <v>31</v>
-      </c>
-      <c r="Y35" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="36" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B35">
+        <v>0</v>
+      </c>
+      <c r="D35" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>43333</v>
       </c>
@@ -1254,52 +892,43 @@
       <c r="C36">
         <v>110</v>
       </c>
-      <c r="V36" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="37" spans="1:26" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>43357</v>
       </c>
-      <c r="Z37" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="38" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B37">
+        <v>0</v>
+      </c>
+      <c r="D37" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>43364</v>
       </c>
       <c r="B38">
         <v>140</v>
       </c>
-      <c r="D38" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="39" spans="1:26" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>43377</v>
       </c>
       <c r="B39">
         <v>140</v>
       </c>
-      <c r="D39" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="40" spans="1:26" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>43390</v>
       </c>
       <c r="B40">
         <v>140</v>
       </c>
-      <c r="D40" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="41" spans="1:26" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>43419</v>
       </c>
@@ -1307,25 +936,24 @@
         <v>120</v>
       </c>
       <c r="D41" t="s">
-        <v>41</v>
-      </c>
-      <c r="Z41" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="42" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A42" s="1"/>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
+        <v>43448</v>
+      </c>
+      <c r="B42">
+        <v>0</v>
+      </c>
       <c r="C42">
         <v>117</v>
       </c>
-      <c r="G42" s="1">
-        <v>43448</v>
-      </c>
-      <c r="O42" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="43" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="D42" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>43452</v>
       </c>
@@ -1333,24 +961,21 @@
         <v>120</v>
       </c>
       <c r="D43" t="s">
-        <v>41</v>
-      </c>
-      <c r="Z43" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="44" spans="1:26" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>43464</v>
       </c>
       <c r="B44">
         <v>140</v>
       </c>
-      <c r="Z44" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="45" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="D44" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>43493</v>
       </c>
@@ -1358,21 +983,18 @@
         <v>140</v>
       </c>
     </row>
-    <row r="46" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>43501</v>
       </c>
       <c r="B46">
         <v>20</v>
       </c>
-      <c r="K46" t="s">
-        <v>41</v>
-      </c>
-      <c r="Z46" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="47" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="D46" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>43504</v>
       </c>
@@ -1380,18 +1002,18 @@
         <v>140</v>
       </c>
     </row>
-    <row r="48" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>43517</v>
       </c>
       <c r="B48">
         <v>120</v>
       </c>
-      <c r="Q48" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="49" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="D48" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>43546</v>
       </c>
@@ -1399,7 +1021,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="50" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>43552</v>
       </c>
@@ -1407,7 +1029,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="51" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>43560</v>
       </c>
@@ -1415,7 +1037,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="52" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>43586</v>
       </c>
@@ -1423,7 +1045,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="53" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>43591</v>
       </c>
@@ -1431,7 +1053,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="54" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>43593</v>
       </c>
@@ -1439,7 +1061,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="55" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>43599</v>
       </c>
@@ -1447,7 +1069,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="56" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>43600</v>
       </c>
@@ -1455,7 +1077,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="57" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>43601</v>
       </c>
@@ -1463,7 +1085,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="58" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>43605</v>
       </c>
@@ -1471,7 +1093,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="59" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>43606</v>
       </c>
@@ -1479,18 +1101,21 @@
         <v>60</v>
       </c>
     </row>
-    <row r="60" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" s="1">
+        <v>43609</v>
+      </c>
+      <c r="B60">
+        <v>0</v>
+      </c>
       <c r="C60">
         <v>147</v>
       </c>
-      <c r="G60" s="1">
-        <v>43609</v>
-      </c>
-      <c r="Z60" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="61" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="D60" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>43616</v>
       </c>
@@ -1498,7 +1123,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="62" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>43620</v>
       </c>
@@ -1506,7 +1131,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="63" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>43621</v>
       </c>
@@ -1514,18 +1139,18 @@
         <v>60</v>
       </c>
     </row>
-    <row r="64" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="G64" s="1">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" s="1">
         <v>43622</v>
       </c>
-      <c r="M64" t="s">
-        <v>31</v>
-      </c>
-      <c r="Z64" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="65" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B64">
+        <v>0</v>
+      </c>
+      <c r="D64" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>43630</v>
       </c>
@@ -1533,18 +1158,18 @@
         <v>120</v>
       </c>
     </row>
-    <row r="66" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>43637</v>
       </c>
       <c r="B66">
         <v>140</v>
       </c>
-      <c r="Z66" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="67" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="D66" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>43647</v>
       </c>
@@ -1552,7 +1177,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="68" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>43661</v>
       </c>
@@ -1560,7 +1185,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="69" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>43662</v>
       </c>
@@ -1568,7 +1193,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="70" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>43663</v>
       </c>
@@ -1576,7 +1201,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="71" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>43664</v>
       </c>
@@ -1584,7 +1209,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="72" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>43668</v>
       </c>
@@ -1592,7 +1217,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="73" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>43669</v>
       </c>
@@ -1600,21 +1225,15 @@
         <v>70</v>
       </c>
     </row>
-    <row r="74" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>43670</v>
       </c>
       <c r="B74">
         <v>140</v>
       </c>
-      <c r="K74" t="s">
-        <v>31</v>
-      </c>
-      <c r="L74" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="75" spans="1:26" x14ac:dyDescent="0.25">
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>43671</v>
       </c>
@@ -1622,7 +1241,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="76" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>43678</v>
       </c>
@@ -1630,7 +1249,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="77" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>43679</v>
       </c>
@@ -1638,7 +1257,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="78" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>43682</v>
       </c>
@@ -1646,18 +1265,18 @@
         <v>140</v>
       </c>
     </row>
-    <row r="79" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>43683</v>
       </c>
       <c r="B79">
         <v>140</v>
       </c>
-      <c r="Z79" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="80" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="D79" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>43685</v>
       </c>
@@ -1668,29 +1287,29 @@
         <v>171</v>
       </c>
     </row>
-    <row r="81" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="G81" s="1">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" s="1">
         <v>43691</v>
       </c>
-      <c r="Z81" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="82" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="G82" s="1">
+      <c r="B81">
+        <v>0</v>
+      </c>
+      <c r="D81" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" s="1">
         <v>43692</v>
       </c>
-      <c r="I82" t="s">
-        <v>31</v>
-      </c>
-      <c r="J82" t="s">
-        <v>31</v>
-      </c>
-      <c r="Z82" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="83" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B82">
+        <v>0</v>
+      </c>
+      <c r="D82" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>43706</v>
       </c>
@@ -1698,15 +1317,18 @@
         <v>120</v>
       </c>
     </row>
-    <row r="84" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="G84" s="1">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" s="1">
         <v>43714</v>
       </c>
-      <c r="Z84" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="85" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B84">
+        <v>0</v>
+      </c>
+      <c r="D84" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>43717</v>
       </c>
@@ -1714,7 +1336,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="86" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>43725</v>
       </c>
@@ -1722,7 +1344,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="87" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>43726</v>
       </c>
@@ -1730,78 +1352,75 @@
         <v>140</v>
       </c>
     </row>
-    <row r="88" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="G88" s="1">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88" s="1">
         <v>43735</v>
       </c>
-      <c r="Z88" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="89" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B88">
+        <v>0</v>
+      </c>
+      <c r="D88" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>43739</v>
       </c>
       <c r="B89">
         <v>140</v>
       </c>
-      <c r="G89" s="1"/>
-    </row>
-    <row r="90" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="G90" s="1">
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90" s="1">
         <v>43749</v>
       </c>
-      <c r="H90" t="s">
-        <v>83</v>
-      </c>
-      <c r="K90" t="s">
-        <v>41</v>
-      </c>
-      <c r="Z90" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="91" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B90">
+        <v>0</v>
+      </c>
+      <c r="D90" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>43753</v>
       </c>
       <c r="B91">
         <v>140</v>
       </c>
-      <c r="G91" s="1"/>
-    </row>
-    <row r="92" spans="1:26" x14ac:dyDescent="0.25">
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>43762</v>
       </c>
       <c r="B92">
         <v>120</v>
       </c>
-      <c r="G92" s="1"/>
-    </row>
-    <row r="93" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="G93" s="1">
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93" s="1">
         <v>43763</v>
       </c>
-      <c r="Z93" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="94" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B93">
+        <v>0</v>
+      </c>
+      <c r="D93" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>43766</v>
       </c>
       <c r="B94">
         <v>140</v>
       </c>
-      <c r="G94" s="1">
-        <v>43766</v>
-      </c>
-      <c r="Z94" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="95" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="D94" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>43767</v>
       </c>
@@ -1809,16 +1428,15 @@
         <v>120</v>
       </c>
     </row>
-    <row r="96" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>43770</v>
       </c>
       <c r="B96">
         <v>120</v>
       </c>
-      <c r="G96" s="1"/>
-    </row>
-    <row r="97" spans="1:26" x14ac:dyDescent="0.25">
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>43773</v>
       </c>
@@ -1826,7 +1444,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="98" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>43787</v>
       </c>
@@ -1837,7 +1455,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="99" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>43790</v>
       </c>
@@ -1845,28 +1463,29 @@
         <v>120</v>
       </c>
     </row>
-    <row r="100" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A100" s="1"/>
-      <c r="G100" s="1">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100" s="1">
         <v>43794</v>
       </c>
-      <c r="O100" t="s">
-        <v>31</v>
-      </c>
-      <c r="Z100" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="101" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A101" s="1"/>
-      <c r="G101" s="1">
+      <c r="B100">
+        <v>0</v>
+      </c>
+      <c r="D100" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A101" s="1">
         <v>43812</v>
       </c>
-      <c r="Z101" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="102" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B101">
+        <v>0</v>
+      </c>
+      <c r="D101" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>43804</v>
       </c>
@@ -1874,19 +1493,46 @@
         <v>140</v>
       </c>
     </row>
-    <row r="103" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="G103" s="1">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A103" s="1">
         <v>43832</v>
       </c>
-      <c r="Z103" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="104" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B103">
+        <v>0</v>
+      </c>
+      <c r="D103" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>43468</v>
       </c>
       <c r="B104">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A105" s="1">
+        <v>43846</v>
+      </c>
+      <c r="B105">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A106" s="1">
+        <v>43850</v>
+      </c>
+      <c r="B106">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A107" s="1">
+        <v>43851</v>
+      </c>
+      <c r="B107">
         <v>140</v>
       </c>
     </row>
